--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1264.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1264.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.619058442335618</v>
+        <v>-1</v>
       </c>
       <c r="B1">
         <v>-1</v>
@@ -357,10 +357,10 @@
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.283048731637572</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.8396252625447218</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
